--- a/biology/Mycologie/Fusariose/Fusariose.xlsx
+++ b/biology/Mycologie/Fusariose/Fusariose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les fusarioses sont des maladies fongiques courantes des végétaux, et parfois de l'animal. Elles sont causées par certains champignons décomposeurs couramment présents dans le sol, du genre Fusarium (deutéromycète) mais ayant dans ces cas un développement parasitaire. 
 Ces maladies se développent dans les cultures (avec des risques plus ou moins importants selon les conditions météorologiques), leur développement varie beaucoup selon les espèces et variétés considérées et selon la météo au moment de l'épiaison et début de floraison (par temps sec, elle n'apparait pas sur céréale à paille mais peut apparaitre sur maïs). En général, elle n'apparait pas dans les silos ou lieux de stockage, du fait de la trop faible humidité des céréales; cependant, les toxines produites au champ avant stockage sont conservées lors du stockage.
-Il existe de nombreuses espèces de Fusarium, dont certaines seulement sont des agents pathogènes ou sont susceptibles d'émettre des mycotoxines (fusariotoxines en l'occurrence), posant problèmes en agriculture ou en médecine humaine et pour l'industrie agroalimentaire. Ces niveaux sont soumis à une réglementation européenne depuis 2006[1]. 
+Il existe de nombreuses espèces de Fusarium, dont certaines seulement sont des agents pathogènes ou sont susceptibles d'émettre des mycotoxines (fusariotoxines en l'occurrence), posant problèmes en agriculture ou en médecine humaine et pour l'industrie agroalimentaire. Ces niveaux sont soumis à une réglementation européenne depuis 2006. 
 Il y a aussi eu des essais d'usage comme agent d'arme biologique.[réf. nécessaire]
 </t>
         </is>
@@ -515,7 +527,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les céréales :
 après la floraison les épillets sont précocement échaudés
@@ -550,7 +564,9 @@
           <t>Propagation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les fusarioses persistent l'hiver dans le sol ou dans les grains infectés, les paillettes ou restes de récoltes au sol. Une forte humidité et un temps chaud favorisent la maturation des périthèces sur les résidus de culture de l'année antérieure (notamment si elle était déjà contaminée) avec émission d’ascospores.
 Le vent dissémine alors les spores. Ceux qui germeront sur la floraison (si l'hygrométrie est proche de 100% durant 2 à 3 jours, avec germination la meilleure à 20 - 25 °C) coloniseront alors les fleurs, puis les glumes et les épis.
@@ -582,7 +598,9 @@
           <t>Écotoxicologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Divers genres de Fusarium produisent différentes familles de fusariotoxine :
 Fusarium pseudigraminearum, F. graminearum, F. flocciferum, F.cerealis, F.culmorum produisent des trichothécènes B (DON, A-DON, NIV) et/ou de la zearalénone;
@@ -615,9 +633,11 @@
           <t>Coûts et conséquences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les grains fusariés peuvent perturber l'alimentation du bétail du fait des mycotoxines[2],dont ;
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les grains fusariés peuvent perturber l'alimentation du bétail du fait des mycotoxines,dont ;
 DON (déoxynivalénol), qui est un trichothécène faisant réduire la consommation des animaux (notamment les porcs) et donc leur vitesse de croissance. Le DON est parfois appelé vomitoxine puisque des teneurs extrêmes peuvent faire vomir les porcs.
 ZEA (zéaralénone) : qui a un effet œstrogénique, notamment chez les jeunes femelles de l'espèce porcine
 Fumonisines B1/B2 qui modifient le métabolisme lipidique et ont des effets immunologiques
@@ -651,10 +671,12 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une approche préventive en amont, c'est-à-dire aux champs, consiste à entretenir une rotation des cultures, des sols équilibrés et à planter des végétaux génétiquement diversifiés, et adaptées au sol et aux microclimats locaux. Ne pas replanter deux années de suite la même espèce sur un site touché, ou y développer une jachère et ne pas irriguer ni arroser au moment de la floraison, utiliser des outils de semis et de récolte désinfectés et récolter en période la plus sèche possible semblent être des moyens de limiter les risques.
-Si une culture a été contaminée, une bonne gestion des résidus est recommandée (ex : broyage fin et enfouissement partiel (déchaumage..) pour accélérer leur biodégradation[3]). Un sol riche en biodiversité est réputé moins favorable aux attaques fongiques de ce type.
+Si une culture a été contaminée, une bonne gestion des résidus est recommandée (ex : broyage fin et enfouissement partiel (déchaumage..) pour accélérer leur biodégradation). Un sol riche en biodiversité est réputé moins favorable aux attaques fongiques de ce type.
 Des pesticides (fongicides) existent, prescrits par leurs fabricants au moment de la floraison (pour les céréales, afin de protéger le futur épi) ; les triazoles limitent la fusariose sur épis et donc l’accumulation de toxines dans la plante, mais les strobilurines semblent moins efficaces sur le genre fusarium
 Les associations culturales doivent tenir compte du risque de fusariose.
 </t>
@@ -685,9 +707,11 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Divers pays et collectivités (dont l'UE ou la France[4]) ont fixé des teneurs maximales à ne pas dépasser pour divers produits. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Divers pays et collectivités (dont l'UE ou la France) ont fixé des teneurs maximales à ne pas dépasser pour divers produits. 
 Ces teneurs maximales varient selon la fusariotoxine, mais aussi suivant le produit alimentaire, selon qu'il est donné à des adultes ou à des enfants, ou à des animaux.
 Par exemple, en Europe, les teneurs maximales en toxines dans les denrées alimentaires ont été publiées (règlement 1881/2006). Cependant les limites pour les toxines T2 et H-T2 étaient encore en cours de rédaction mi-2009. En alimentation animale, il n'existe que des teneurs maximales recommandées (recommandation 2006/576 du 17 août 2006) et qui ne concernent que les animaux les plus sensibles.
 </t>
@@ -719,6 +743,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,7 +770,9 @@
           <t>Cas particuliers</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Au Maghreb, la fusariose, appelée localement « bayoud », attaque tout particulièrement le palmier dattier. Elle se propage actuellement en Mauritanie, en Égypte, en Palestine, en Grèce et en Turquie.
 Cette maladie est due au champignon Fusarium oxysporum f. sp. albedinis, qui s'insinue par les racines et par les vaisseaux pour gagner toutes les parties de la plante, provoquant sa destruction totale. 
